--- a/biology/Botanique/Maigold/Maigold.xlsx
+++ b/biology/Botanique/Maigold/Maigold.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-'Maigold' (ce qui signifie « or de mai ») est un cultivar de rosier grimpant obtenu en 1953 par le rosiériste allemand Reimer Kordes (1922-1997). Il est issu d'un croisement 'Poulsen's Pink' x 'Frühlingstag'[1],[2]. Cet excellent rosier jaune, fleurissant à profusion, figure toujours en bonne place dans les catalogues[3].
+'Maigold' (ce qui signifie « or de mai ») est un cultivar de rosier grimpant obtenu en 1953 par le rosiériste allemand Reimer Kordes (1922-1997). Il est issu d'un croisement 'Poulsen's Pink' x 'Frühlingstag',. Cet excellent rosier jaune, fleurissant à profusion, figure toujours en bonne place dans les catalogues.
 </t>
         </is>
       </c>
@@ -512,12 +524,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'agit d'un hybride de Rosa spinosissima aux grosses fleurs (14-30 pétales) d'un jaune profond aux nuances cuivrées et ambrées. Elles sont semi-doubles à doubles et parfumées. La floraison, extrêmement généreuse, n'est pas remontante[4],[5] ; elle survient sur les vieux rameaux.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit d'un hybride de Rosa spinosissima aux grosses fleurs (14-30 pétales) d'un jaune profond aux nuances cuivrées et ambrées. Elles sont semi-doubles à doubles et parfumées. La floraison, extrêmement généreuse, n'est pas remontante, ; elle survient sur les vieux rameaux.
 Le buisson grimpant, très épineux, au feuillage luisant atteint 200 cm à 500 cm de hauteur pour une largeur de 250 cm. Ses longues branches arquées peuvent aussi constituer des haies touffues.
-Sa zone de rusticité est de 6b à 9b ; il supporte donc les hivers rigoureux. Ce rosier tétraploïde est naturellement sain, résistant aux maladies[6].
-On peut notamment l'admirer à la roseraie du Val-de-Marne de L'Haÿ-les-Roses[7].
+Sa zone de rusticité est de 6b à 9b ; il supporte donc les hivers rigoureux. Ce rosier tétraploïde est naturellement sain, résistant aux maladies.
+On peut notamment l'admirer à la roseraie du Val-de-Marne de L'Haÿ-les-Roses.
 			Boutons de rose 'Maigold' au jardin botanique de Berlin
 			Rose 'Maigold' au jardin botanique de Cracovie
 			Rose 'Maigold' épanouie au jardin botanique de Berlin
